--- a/Money_Balance_V5/Money_balance.xlsx
+++ b/Money_Balance_V5/Money_balance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>Valued_stuff</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>BB sumiu com minha poupanca</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1655,6 +1658,26 @@
         <v>38</v>
       </c>
     </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>5200</v>
+      </c>
+      <c r="B60">
+        <v>47000</v>
+      </c>
+      <c r="C60">
+        <v>25944.37</v>
+      </c>
+      <c r="D60">
+        <v>72944.37</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45726</v>
+      </c>
+      <c r="F60" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Money_Balance_V5/Money_balance.xlsx
+++ b/Money_Balance_V5/Money_balance.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518E75EA-EC68-41F6-A343-99FFDB49A608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>Valued_stuff</t>
   </si>
@@ -145,12 +146,18 @@
   </si>
   <si>
     <t>Salary</t>
+  </si>
+  <si>
+    <t>No balance</t>
+  </si>
+  <si>
+    <t>Recebi 12000 de consultoria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,20 +469,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="5" max="5" width="18.62890625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -495,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2200</v>
       </c>
@@ -515,7 +522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2200</v>
       </c>
@@ -535,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2200</v>
       </c>
@@ -555,7 +562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2200</v>
       </c>
@@ -575,7 +582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2200</v>
       </c>
@@ -595,7 +602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2200</v>
       </c>
@@ -615,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2200</v>
       </c>
@@ -635,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2200</v>
       </c>
@@ -655,7 +662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2200</v>
       </c>
@@ -675,7 +682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2200</v>
       </c>
@@ -695,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2200</v>
       </c>
@@ -715,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2200</v>
       </c>
@@ -735,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2200</v>
       </c>
@@ -755,7 +762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2200</v>
       </c>
@@ -775,7 +782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2200</v>
       </c>
@@ -795,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2200</v>
       </c>
@@ -815,7 +822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2200</v>
       </c>
@@ -835,7 +842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2200</v>
       </c>
@@ -855,7 +862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2200</v>
       </c>
@@ -875,7 +882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2200</v>
       </c>
@@ -895,7 +902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2200</v>
       </c>
@@ -915,7 +922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -935,7 +942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2200</v>
       </c>
@@ -955,7 +962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2200</v>
       </c>
@@ -975,7 +982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2200</v>
       </c>
@@ -995,7 +1002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2200</v>
       </c>
@@ -1015,7 +1022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2200</v>
       </c>
@@ -1035,7 +1042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2200</v>
       </c>
@@ -1055,7 +1062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2200</v>
       </c>
@@ -1075,7 +1082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2200</v>
       </c>
@@ -1095,7 +1102,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2200</v>
       </c>
@@ -1115,7 +1122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2200</v>
       </c>
@@ -1135,7 +1142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2200</v>
       </c>
@@ -1155,7 +1162,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3100</v>
       </c>
@@ -1175,7 +1182,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3100</v>
       </c>
@@ -1195,7 +1202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3100</v>
       </c>
@@ -1215,7 +1222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3100</v>
       </c>
@@ -1235,7 +1242,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3100</v>
       </c>
@@ -1255,7 +1262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5000</v>
       </c>
@@ -1275,7 +1282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5600</v>
       </c>
@@ -1295,7 +1302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5600</v>
       </c>
@@ -1315,7 +1322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5600</v>
       </c>
@@ -1335,7 +1342,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5600</v>
       </c>
@@ -1355,7 +1362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5200</v>
       </c>
@@ -1375,7 +1382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5200</v>
       </c>
@@ -1395,7 +1402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5200</v>
       </c>
@@ -1415,7 +1422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5200</v>
       </c>
@@ -1435,7 +1442,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5200</v>
       </c>
@@ -1455,7 +1462,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5200</v>
       </c>
@@ -1475,7 +1482,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5200</v>
       </c>
@@ -1495,7 +1502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5200</v>
       </c>
@@ -1515,7 +1522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5200</v>
       </c>
@@ -1535,7 +1542,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5200</v>
       </c>
@@ -1555,7 +1562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5200</v>
       </c>
@@ -1575,7 +1582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5200</v>
       </c>
@@ -1595,7 +1602,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5200</v>
       </c>
@@ -1615,7 +1622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5200</v>
       </c>
@@ -1635,7 +1642,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5200</v>
       </c>
@@ -1653,6 +1660,66 @@
       </c>
       <c r="F59" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5200</v>
+      </c>
+      <c r="B60">
+        <v>47000</v>
+      </c>
+      <c r="C60">
+        <v>24468.3</v>
+      </c>
+      <c r="D60">
+        <v>71468.3</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45726</v>
+      </c>
+      <c r="F60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5200</v>
+      </c>
+      <c r="B61">
+        <v>47000</v>
+      </c>
+      <c r="C61">
+        <v>24468.3</v>
+      </c>
+      <c r="D61">
+        <v>71468.3</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45757</v>
+      </c>
+      <c r="F61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5200</v>
+      </c>
+      <c r="B62">
+        <v>47000</v>
+      </c>
+      <c r="C62">
+        <v>34148.99</v>
+      </c>
+      <c r="D62">
+        <v>81148.990000000005</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45787</v>
+      </c>
+      <c r="F62" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Money_Balance_V5/Money_balance.xlsx
+++ b/Money_Balance_V5/Money_balance.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518E75EA-EC68-41F6-A343-99FFDB49A608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F2BE8E-9D41-4BC6-9881-58DECC735B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Valued_stuff</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Recebi 12000 de consultoria</t>
+  </si>
+  <si>
+    <t>Recebi 10000 de dinheiro emprestado</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,6 +1725,26 @@
         <v>43</v>
       </c>
     </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5200</v>
+      </c>
+      <c r="B63">
+        <v>47000</v>
+      </c>
+      <c r="C63">
+        <v>47466.96</v>
+      </c>
+      <c r="D63">
+        <v>94466.96</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45818</v>
+      </c>
+      <c r="F63" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Money_Balance_V5/Money_balance.xlsx
+++ b/Money_Balance_V5/Money_balance.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F2BE8E-9D41-4BC6-9881-58DECC735B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AAAC5F-BE0C-4E1F-B7A8-CB786AF66E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>Valued_stuff</t>
   </si>
@@ -155,6 +166,9 @@
   </si>
   <si>
     <t>Recebi 10000 de dinheiro emprestado</t>
+  </si>
+  <si>
+    <t>Começo dos invest in bit</t>
   </si>
 </sst>
 </file>
@@ -473,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,6 +1759,67 @@
         <v>44</v>
       </c>
     </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5200</v>
+      </c>
+      <c r="B64">
+        <v>47000</v>
+      </c>
+      <c r="C64">
+        <v>47466.96</v>
+      </c>
+      <c r="D64">
+        <v>94466.96</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45848</v>
+      </c>
+      <c r="F64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>5200</v>
+      </c>
+      <c r="B65">
+        <v>47000</v>
+      </c>
+      <c r="C65">
+        <v>47466.96</v>
+      </c>
+      <c r="D65">
+        <v>94466.96</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45879</v>
+      </c>
+      <c r="F65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5200</v>
+      </c>
+      <c r="B66">
+        <v>47000</v>
+      </c>
+      <c r="C66">
+        <v>50019.21</v>
+      </c>
+      <c r="D66">
+        <f>B66+C66</f>
+        <v>97019.209999999992</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45910</v>
+      </c>
+      <c r="F66" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Money_Balance_V5/Money_balance.xlsx
+++ b/Money_Balance_V5/Money_balance.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AAAC5F-BE0C-4E1F-B7A8-CB786AF66E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Valued_stuff</t>
   </si>
@@ -169,12 +168,15 @@
   </si>
   <si>
     <t>Começo dos invest in bit</t>
+  </si>
+  <si>
+    <t>Ultimo mes do segundo posdoc and nore invest in bit.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -486,20 +488,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -519,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2200</v>
       </c>
@@ -539,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2200</v>
       </c>
@@ -559,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2200</v>
       </c>
@@ -579,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>2200</v>
       </c>
@@ -599,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>2200</v>
       </c>
@@ -619,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>2200</v>
       </c>
@@ -639,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>2200</v>
       </c>
@@ -659,7 +661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2200</v>
       </c>
@@ -679,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>2200</v>
       </c>
@@ -699,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2200</v>
       </c>
@@ -719,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>2200</v>
       </c>
@@ -739,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>2200</v>
       </c>
@@ -759,7 +761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>2200</v>
       </c>
@@ -779,7 +781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>2200</v>
       </c>
@@ -799,7 +801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>2200</v>
       </c>
@@ -819,7 +821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>2200</v>
       </c>
@@ -839,7 +841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>2200</v>
       </c>
@@ -859,7 +861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>2200</v>
       </c>
@@ -879,7 +881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>2200</v>
       </c>
@@ -899,7 +901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>2200</v>
       </c>
@@ -919,7 +921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>2200</v>
       </c>
@@ -939,7 +941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -959,7 +961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>2200</v>
       </c>
@@ -979,7 +981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>2200</v>
       </c>
@@ -999,7 +1001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>2200</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>2200</v>
       </c>
@@ -1039,7 +1041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>2200</v>
       </c>
@@ -1059,7 +1061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>2200</v>
       </c>
@@ -1079,7 +1081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>2200</v>
       </c>
@@ -1099,7 +1101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>2200</v>
       </c>
@@ -1119,7 +1121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>2200</v>
       </c>
@@ -1139,7 +1141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>2200</v>
       </c>
@@ -1159,7 +1161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>2200</v>
       </c>
@@ -1179,7 +1181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>3100</v>
       </c>
@@ -1199,7 +1201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>3100</v>
       </c>
@@ -1219,7 +1221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>3100</v>
       </c>
@@ -1239,7 +1241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>3100</v>
       </c>
@@ -1259,7 +1261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>3100</v>
       </c>
@@ -1279,7 +1281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>5000</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>5600</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>5600</v>
       </c>
@@ -1339,7 +1341,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>5600</v>
       </c>
@@ -1359,7 +1361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>5600</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>5200</v>
       </c>
@@ -1399,7 +1401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>5200</v>
       </c>
@@ -1419,7 +1421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>5200</v>
       </c>
@@ -1439,7 +1441,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>5200</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>5200</v>
       </c>
@@ -1479,7 +1481,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>5200</v>
       </c>
@@ -1499,7 +1501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>5200</v>
       </c>
@@ -1519,7 +1521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>5200</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>5200</v>
       </c>
@@ -1559,7 +1561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>5200</v>
       </c>
@@ -1579,7 +1581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>5200</v>
       </c>
@@ -1599,7 +1601,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>5200</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>5200</v>
       </c>
@@ -1639,7 +1641,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>5200</v>
       </c>
@@ -1659,7 +1661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>5200</v>
       </c>
@@ -1679,7 +1681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>5200</v>
       </c>
@@ -1699,7 +1701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>5200</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>5200</v>
       </c>
@@ -1739,7 +1741,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>5200</v>
       </c>
@@ -1759,7 +1761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>5200</v>
       </c>
@@ -1779,7 +1781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>5200</v>
       </c>
@@ -1799,7 +1801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>5200</v>
       </c>
@@ -1818,6 +1820,27 @@
       </c>
       <c r="F66" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67">
+        <v>5200</v>
+      </c>
+      <c r="B67">
+        <v>47000</v>
+      </c>
+      <c r="C67">
+        <v>48900.53</v>
+      </c>
+      <c r="D67">
+        <f>SUM(B67:C67)</f>
+        <v>95900.53</v>
+      </c>
+      <c r="E67" s="1">
+        <v>45940</v>
+      </c>
+      <c r="F67" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Money_Balance_V5/Money_balance.xlsx
+++ b/Money_Balance_V5/Money_balance.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>Valued_stuff</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>Ultimo mes do segundo posdoc and nore invest in bit.</t>
+  </si>
+  <si>
+    <t>Invest fail, no balance</t>
+  </si>
+  <si>
+    <t>Balance, too much spending in Jan, New celphone and flight tickets in last day.</t>
   </si>
 </sst>
 </file>
@@ -489,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1843,6 +1849,90 @@
         <v>46</v>
       </c>
     </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68">
+        <v>5200</v>
+      </c>
+      <c r="B68">
+        <v>40000</v>
+      </c>
+      <c r="C68">
+        <v>48900.53</v>
+      </c>
+      <c r="D68">
+        <f>B68+C68</f>
+        <v>88900.53</v>
+      </c>
+      <c r="E68" s="1">
+        <v>45971</v>
+      </c>
+      <c r="F68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69">
+        <v>7800</v>
+      </c>
+      <c r="B69">
+        <v>40000</v>
+      </c>
+      <c r="C69">
+        <v>48900.53</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ref="D69:D71" si="0">B69+C69</f>
+        <v>88900.53</v>
+      </c>
+      <c r="E69" s="1">
+        <v>46001</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70">
+        <v>7800</v>
+      </c>
+      <c r="B70">
+        <v>40000</v>
+      </c>
+      <c r="C70">
+        <v>48900.53</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>88900.53</v>
+      </c>
+      <c r="E70" s="1">
+        <v>46032</v>
+      </c>
+      <c r="F70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>7800</v>
+      </c>
+      <c r="B71">
+        <v>40000</v>
+      </c>
+      <c r="C71">
+        <v>43442.49</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="0"/>
+        <v>83442.489999999991</v>
+      </c>
+      <c r="E71" s="1">
+        <v>46063</v>
+      </c>
+      <c r="F71" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
